--- a/lojasAssai.xlsx
+++ b/lojasAssai.xlsx
@@ -4469,7 +4469,7 @@
         <v>-19.957615</v>
       </c>
       <c r="F90" s="2">
-        <v>-19.958086</v>
+        <v>-44.1727541</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -5029,7 +5029,7 @@
         <v>-8.291225000000001</v>
       </c>
       <c r="F118" s="2">
-        <v>-8.291225000000001</v>
+        <v>-35.0255648</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -5789,7 +5789,7 @@
         <v>-22.927272</v>
       </c>
       <c r="F156" s="2">
-        <v>0</v>
+        <v>-43.2393755</v>
       </c>
     </row>
     <row r="157" spans="1:6">
